--- a/data/trans_dic/P13A_1_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_2023-Edad-trans_dic.xlsx
@@ -565,10 +565,10 @@
       </c>
       <c r="C4" s="5" t="inlineStr"/>
       <c r="D4" s="5" t="n">
-        <v>0.8091585224493748</v>
+        <v>0.8091585224493749</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8091585224493748</v>
+        <v>0.8091585224493749</v>
       </c>
     </row>
     <row r="5">
@@ -580,10 +580,10 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.4416710802375308</v>
+        <v>0.4647000983755443</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4416710802375308</v>
+        <v>0.4647000983755443</v>
       </c>
     </row>
     <row r="6">
@@ -616,10 +616,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.8921518061509461</v>
+        <v>0.8921518061509459</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9299791893524474</v>
+        <v>0.9299791893524475</v>
       </c>
     </row>
     <row r="8">
@@ -631,10 +631,10 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.5571891016219066</v>
+        <v>0.5076181073155985</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6640731897391312</v>
+        <v>0.6907359542653995</v>
       </c>
     </row>
     <row r="9">
@@ -682,10 +682,10 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.7789586392617547</v>
+        <v>0.7560577176035322</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8229546528615963</v>
+        <v>0.8187029921325464</v>
       </c>
     </row>
     <row r="12">
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9659244820014313</v>
+        <v>0.9659244820014311</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.9709748929932748</v>
@@ -733,10 +733,10 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.884067148239954</v>
+        <v>0.8817988906023498</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.909063175750672</v>
+        <v>0.8974427886407403</v>
       </c>
     </row>
     <row r="15">
@@ -784,10 +784,10 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.9130856474946444</v>
+        <v>0.9034577508293327</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9291985919905229</v>
+        <v>0.9242791129327286</v>
       </c>
     </row>
     <row r="18">
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.9450867058796577</v>
+        <v>0.9450867058796579</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.9553974957032717</v>
@@ -878,10 +878,10 @@
       </c>
       <c r="C23" s="5" t="inlineStr"/>
       <c r="D23" s="5" t="n">
-        <v>0.8272514941364638</v>
+        <v>0.8214363591913051</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8505332298595798</v>
+        <v>0.8655228748181317</v>
       </c>
     </row>
     <row r="24">
@@ -914,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.9435065701824737</v>
+        <v>0.9435065701824735</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.9545434187860116</v>
@@ -929,10 +929,10 @@
       </c>
       <c r="C26" s="5" t="inlineStr"/>
       <c r="D26" s="5" t="n">
-        <v>0.8895702521943534</v>
+        <v>0.8873155270420866</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9100689901674069</v>
+        <v>0.9085105872239492</v>
       </c>
     </row>
     <row r="27">
@@ -944,10 +944,10 @@
       </c>
       <c r="C27" s="5" t="inlineStr"/>
       <c r="D27" s="5" t="n">
-        <v>0.9727628384682264</v>
+        <v>0.9725621456740506</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9776950480371631</v>
+        <v>0.9791373958151877</v>
       </c>
     </row>
     <row r="28">
@@ -1091,10 +1091,10 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>8766</v>
+        <v>9223</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8766</v>
+        <v>9223</v>
       </c>
     </row>
     <row r="7">
@@ -1159,10 +1159,10 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>5574</v>
+        <v>5078</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10231</v>
+        <v>10641</v>
       </c>
     </row>
     <row r="11">
@@ -1227,10 +1227,10 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>15308</v>
+        <v>14858</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>22034</v>
+        <v>21920</v>
       </c>
     </row>
     <row r="15">
@@ -1295,10 +1295,10 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>37554</v>
+        <v>37458</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>45335</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="19">
@@ -1363,10 +1363,10 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>30431</v>
+        <v>30110</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>41204</v>
+        <v>40986</v>
       </c>
     </row>
     <row r="23">
@@ -1491,10 +1491,10 @@
       </c>
       <c r="C30" s="6" t="inlineStr"/>
       <c r="D30" s="6" t="n">
-        <v>17684</v>
+        <v>17560</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>22385</v>
+        <v>22780</v>
       </c>
     </row>
     <row r="31">
@@ -1559,10 +1559,10 @@
       </c>
       <c r="C34" s="6" t="inlineStr"/>
       <c r="D34" s="6" t="n">
-        <v>146215</v>
+        <v>145845</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>185904</v>
+        <v>185586</v>
       </c>
     </row>
     <row r="35">
@@ -1574,10 +1574,10 @@
       </c>
       <c r="C35" s="6" t="inlineStr"/>
       <c r="D35" s="6" t="n">
-        <v>159889</v>
+        <v>159856</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>199719</v>
+        <v>200013</v>
       </c>
     </row>
     <row r="36">
